--- a/excel/Описание_работ/11/Физика/KT.xlsx
+++ b/excel/Описание_работ/11/Физика/KT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Код </t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>2.6</t>
+  </si>
+  <si>
+    <t>2.7</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +519,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
